--- a/GPS/user_stay_point/final_card/reg_card_feature_for_gps.xlsx
+++ b/GPS/user_stay_point/final_card/reg_card_feature_for_gps.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\credit_card\DB104_hau\GPS\user_stay_point\final_card\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google雲端硬碟\資料分析師班\專題\credit_card\credit_card\DB104\GPS\user_stay_point\final_card\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10970"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -8363,17 +8363,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A307" sqref="A307"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="49.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8393,7 +8391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -8422,7 +8420,7 @@
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8451,7 +8449,7 @@
         <v>0.21925133689839571</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -8480,7 +8478,7 @@
         <v>0.25151515151515152</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -8509,7 +8507,7 @@
         <v>0.20550458715596331</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -8538,7 +8536,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -8567,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -8596,7 +8594,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -8625,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -8654,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -8683,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -8712,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -8741,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -8770,7 +8768,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -8799,7 +8797,7 @@
         <v>0.18103448275862069</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -8828,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>311</v>
       </c>
@@ -8857,7 +8855,7 @@
         <v>0.25291828793774318</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -8886,7 +8884,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -8915,7 +8913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -8944,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -8973,7 +8971,7 @@
         <v>0.30136986301369861</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -9002,7 +9000,7 @@
         <v>0.16129032258064516</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -9031,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -9060,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -9089,7 +9087,7 @@
         <v>0.14778325123152711</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -9118,7 +9116,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -9147,7 +9145,7 @@
         <v>0.171875</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -9176,7 +9174,7 @@
         <v>0.13793103448275862</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -9205,7 +9203,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -9234,7 +9232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -9263,7 +9261,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -9292,7 +9290,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -9321,7 +9319,7 @@
         <v>0.17481203007518797</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -9350,7 +9348,7 @@
         <v>0.11666666666666667</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -9379,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -9408,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -9437,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -9466,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -9495,7 +9493,7 @@
         <v>0.15873015873015872</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -9524,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -9553,7 +9551,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -9582,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -9611,7 +9609,7 @@
         <v>0.36585365853658536</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -9640,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -9669,7 +9667,7 @@
         <v>0.17153284671532848</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -9698,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -9727,7 +9725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -9756,7 +9754,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -9785,7 +9783,7 @@
         <v>0.1076923076923077</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -9814,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -9843,7 +9841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -9872,7 +9870,7 @@
         <v>0.20571428571428571</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -9901,7 +9899,7 @@
         <v>0.18327471668620554</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -9930,7 +9928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -9959,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -9988,7 +9986,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -10017,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -10046,7 +10044,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -10075,7 +10073,7 @@
         <v>0.19384615384615383</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -10104,7 +10102,7 @@
         <v>0.16943784639746634</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -10133,7 +10131,7 @@
         <v>0.22184300341296928</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -10162,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -10191,7 +10189,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -10220,7 +10218,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -10249,7 +10247,7 @@
         <v>0.18209408194233687</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -10278,7 +10276,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -10307,7 +10305,7 @@
         <v>0.203125</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -10336,7 +10334,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -10365,7 +10363,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -10394,7 +10392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -10423,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -10452,7 +10450,7 @@
         <v>0.14754098360655737</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -10481,7 +10479,7 @@
         <v>0.26470588235294118</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -10510,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -10539,7 +10537,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -10568,7 +10566,7 @@
         <v>0.24175824175824176</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -10597,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -10626,7 +10624,7 @@
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -10655,7 +10653,7 @@
         <v>0.27967433223825167</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -10684,7 +10682,7 @@
         <v>0.11235955056179775</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -10713,7 +10711,7 @@
         <v>0.19462365591397848</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -10742,7 +10740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -10771,7 +10769,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -10800,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -10829,7 +10827,7 @@
         <v>0.16006600660066006</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -10858,7 +10856,7 @@
         <v>0.21428571428571427</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -10887,7 +10885,7 @@
         <v>0.32631578947368423</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -10916,7 +10914,7 @@
         <v>0.29629629629629628</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -10945,7 +10943,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -10974,7 +10972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -11003,7 +11001,7 @@
         <v>9.8591549295774641E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -11032,7 +11030,7 @@
         <v>0.18695652173913044</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -11061,7 +11059,7 @@
         <v>0.12116564417177914</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -11090,7 +11088,7 @@
         <v>0.13793103448275862</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -11119,7 +11117,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -11148,7 +11146,7 @@
         <v>0.22535211267605634</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -11177,7 +11175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -11206,7 +11204,7 @@
         <v>0.18518518518518517</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -11235,7 +11233,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -11264,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -11293,7 +11291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -11322,7 +11320,7 @@
         <v>0.16709511568123395</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -11351,7 +11349,7 @@
         <v>0.19801980198019803</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -11380,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -11409,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -11438,7 +11436,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -11467,7 +11465,7 @@
         <v>0.19892473118279569</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -11496,7 +11494,7 @@
         <v>0.17647058823529413</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -11525,7 +11523,7 @@
         <v>0.18894830659536541</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -11554,7 +11552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -11583,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -11612,7 +11610,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -11641,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -11670,7 +11668,7 @@
         <v>0.13546690048224463</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -11699,7 +11697,7 @@
         <v>0.18151815181518152</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -11728,7 +11726,7 @@
         <v>0.20526315789473684</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -11757,7 +11755,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -11786,7 +11784,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -11815,7 +11813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -11844,7 +11842,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -11873,7 +11871,7 @@
         <v>0.2564935064935065</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -11902,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -11931,7 +11929,7 @@
         <v>0.25464731347084291</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -11960,7 +11958,7 @@
         <v>0.28325907065563333</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -11989,7 +11987,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -12018,7 +12016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -12047,7 +12045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -12076,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -12105,7 +12103,7 @@
         <v>0.1816860465116279</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -12134,7 +12132,7 @@
         <v>0.16129032258064516</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -12163,7 +12161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -12192,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -12221,7 +12219,7 @@
         <v>0.11612903225806452</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -12250,7 +12248,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -12279,7 +12277,7 @@
         <v>0.11538461538461539</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -12308,7 +12306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -12337,7 +12335,7 @@
         <v>0.23225806451612904</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -12366,7 +12364,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -12395,7 +12393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -12424,7 +12422,7 @@
         <v>0.16067796610169491</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -12453,7 +12451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -12482,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -12511,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -12540,7 +12538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -12569,7 +12567,7 @@
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -12598,7 +12596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>150</v>
       </c>
@@ -12627,7 +12625,7 @@
         <v>0.18564356435643564</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>151</v>
       </c>
@@ -12656,7 +12654,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -12685,7 +12683,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -12714,7 +12712,7 @@
         <v>0.19753086419753085</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -12743,7 +12741,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -12772,7 +12770,7 @@
         <v>0.31891891891891894</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -12801,7 +12799,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -12830,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -12859,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -12888,7 +12886,7 @@
         <v>0.13913496612819176</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -12917,7 +12915,7 @@
         <v>0.22857142857142856</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -12946,7 +12944,7 @@
         <v>0.17090069284064666</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -12975,7 +12973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -13004,7 +13002,7 @@
         <v>0.28260869565217389</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -13033,7 +13031,7 @@
         <v>0.21702127659574469</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -13062,7 +13060,7 @@
         <v>0.21808510638297873</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -13091,7 +13089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -13120,7 +13118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -13149,7 +13147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -13178,7 +13176,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>170</v>
       </c>
@@ -13207,7 +13205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>171</v>
       </c>
@@ -13236,7 +13234,7 @@
         <v>0.17741935483870969</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -13265,7 +13263,7 @@
         <v>0.22727272727272727</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>173</v>
       </c>
@@ -13294,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>174</v>
       </c>
@@ -13323,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -13352,7 +13350,7 @@
         <v>0.18670886075949367</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>176</v>
       </c>
@@ -13381,7 +13379,7 @@
         <v>0.15886524822695036</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>177</v>
       </c>
@@ -13410,7 +13408,7 @@
         <v>0.17322834645669291</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -13439,7 +13437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>179</v>
       </c>
@@ -13468,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -13497,7 +13495,7 @@
         <v>0.39672131147540984</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -13526,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>182</v>
       </c>
@@ -13555,7 +13553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>183</v>
       </c>
@@ -13584,7 +13582,7 @@
         <v>0.16565246788370522</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -13613,7 +13611,7 @@
         <v>0.21951219512195122</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>185</v>
       </c>
@@ -13642,7 +13640,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -13671,7 +13669,7 @@
         <v>0.12037037037037036</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>187</v>
       </c>
@@ -13700,7 +13698,7 @@
         <v>0.20491803278688525</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -13729,7 +13727,7 @@
         <v>0.16624685138539042</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>189</v>
       </c>
@@ -13758,7 +13756,7 @@
         <v>0.19148936170212766</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>190</v>
       </c>
@@ -13787,7 +13785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -13816,7 +13814,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -13845,7 +13843,7 @@
         <v>0.13740458015267176</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>193</v>
       </c>
@@ -13874,7 +13872,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>194</v>
       </c>
@@ -13903,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -13932,7 +13930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>196</v>
       </c>
@@ -13961,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>197</v>
       </c>
@@ -13990,7 +13988,7 @@
         <v>0.15267175572519084</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>198</v>
       </c>
@@ -14019,7 +14017,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>199</v>
       </c>
@@ -14048,7 +14046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>200</v>
       </c>
@@ -14077,7 +14075,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>201</v>
       </c>
@@ -14106,7 +14104,7 @@
         <v>0.28987811340752517</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -14135,7 +14133,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>203</v>
       </c>
@@ -14164,7 +14162,7 @@
         <v>0.13696060037523453</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -14193,7 +14191,7 @@
         <v>0.1941747572815534</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>205</v>
       </c>
@@ -14222,7 +14220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>206</v>
       </c>
@@ -14251,7 +14249,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -14280,7 +14278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -14309,7 +14307,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -14338,7 +14336,7 @@
         <v>0.17592592592592593</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -14367,7 +14365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -14396,7 +14394,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -14425,7 +14423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -14454,7 +14452,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -14483,7 +14481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>215</v>
       </c>
@@ -14512,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -14541,7 +14539,7 @@
         <v>0.17630057803468208</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>217</v>
       </c>
@@ -14570,7 +14568,7 @@
         <v>0.15758754863813229</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>218</v>
       </c>
@@ -14599,7 +14597,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>219</v>
       </c>
@@ -14628,7 +14626,7 @@
         <v>0.42657342657342656</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>220</v>
       </c>
@@ -14657,7 +14655,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>221</v>
       </c>
@@ -14686,7 +14684,7 @@
         <v>0.24753867791842477</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>222</v>
       </c>
@@ -14715,7 +14713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>223</v>
       </c>
@@ -14744,7 +14742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>224</v>
       </c>
@@ -14773,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>225</v>
       </c>
@@ -14802,7 +14800,7 @@
         <v>0.21859706362153344</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>226</v>
       </c>
@@ -14831,7 +14829,7 @@
         <v>0.18659658344283836</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>227</v>
       </c>
@@ -14860,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -14889,7 +14887,7 @@
         <v>0.16953316953316952</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>229</v>
       </c>
@@ -14918,7 +14916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>230</v>
       </c>
@@ -14947,7 +14945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>231</v>
       </c>
@@ -14976,7 +14974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>232</v>
       </c>
@@ -15005,7 +15003,7 @@
         <v>0.18274111675126903</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>233</v>
       </c>
@@ -15034,7 +15032,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>234</v>
       </c>
@@ -15063,7 +15061,7 @@
         <v>0.1796875</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>235</v>
       </c>
@@ -15092,7 +15090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>236</v>
       </c>
@@ -15121,7 +15119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>237</v>
       </c>
@@ -15150,7 +15148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>238</v>
       </c>
@@ -15179,7 +15177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>239</v>
       </c>
@@ -15208,7 +15206,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -15237,7 +15235,7 @@
         <v>0.19345238095238096</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>241</v>
       </c>
@@ -15266,7 +15264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>242</v>
       </c>
@@ -15295,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>243</v>
       </c>
@@ -15324,7 +15322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>244</v>
       </c>
@@ -15353,7 +15351,7 @@
         <v>0.15042630937880633</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>245</v>
       </c>
@@ -15382,7 +15380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>246</v>
       </c>
@@ -15411,7 +15409,7 @@
         <v>5.7692307692307696E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>247</v>
       </c>
@@ -15440,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>248</v>
       </c>
@@ -15469,7 +15467,7 @@
         <v>0.31595092024539878</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>249</v>
       </c>
@@ -15498,7 +15496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>250</v>
       </c>
@@ -15527,7 +15525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>251</v>
       </c>
@@ -15556,7 +15554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>252</v>
       </c>
@@ -15585,7 +15583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>253</v>
       </c>
@@ -15614,7 +15612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>254</v>
       </c>
@@ -15643,7 +15641,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>255</v>
       </c>
@@ -15672,7 +15670,7 @@
         <v>0.18965517241379309</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>256</v>
       </c>
@@ -15701,7 +15699,7 @@
         <v>0.12574850299401197</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>257</v>
       </c>
@@ -15730,7 +15728,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>258</v>
       </c>
@@ -15759,7 +15757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>259</v>
       </c>
@@ -15788,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>260</v>
       </c>
@@ -15817,7 +15815,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>261</v>
       </c>
@@ -15846,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>262</v>
       </c>
@@ -15875,7 +15873,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>263</v>
       </c>
@@ -15904,7 +15902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>264</v>
       </c>
@@ -15933,7 +15931,7 @@
         <v>0.16289592760180996</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>265</v>
       </c>
@@ -15962,7 +15960,7 @@
         <v>0.2978723404255319</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>266</v>
       </c>
@@ -15991,7 +15989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>267</v>
       </c>
@@ -16020,7 +16018,7 @@
         <v>0.17241379310344829</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>268</v>
       </c>
@@ -16049,7 +16047,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>269</v>
       </c>
@@ -16078,7 +16076,7 @@
         <v>0.17525773195876287</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>270</v>
       </c>
@@ -16107,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>271</v>
       </c>
@@ -16136,7 +16134,7 @@
         <v>0.17993079584775087</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>272</v>
       </c>
@@ -16165,7 +16163,7 @@
         <v>0.19875776397515527</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>273</v>
       </c>
@@ -16194,7 +16192,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>274</v>
       </c>
@@ -16223,7 +16221,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>275</v>
       </c>
@@ -16252,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>276</v>
       </c>
@@ -16281,7 +16279,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>277</v>
       </c>
@@ -16310,7 +16308,7 @@
         <v>0.171875</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>278</v>
       </c>
@@ -16339,7 +16337,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>279</v>
       </c>
@@ -16368,7 +16366,7 @@
         <v>0.14130434782608695</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>280</v>
       </c>
@@ -16397,7 +16395,7 @@
         <v>0.1796875</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>281</v>
       </c>
@@ -16426,7 +16424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>282</v>
       </c>
@@ -16455,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>283</v>
       </c>
@@ -16484,7 +16482,7 @@
         <v>0.18655625913297613</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>284</v>
       </c>
@@ -16513,7 +16511,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>285</v>
       </c>
@@ -16542,7 +16540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>286</v>
       </c>
@@ -16571,7 +16569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>287</v>
       </c>
@@ -16600,7 +16598,7 @@
         <v>0.193359375</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>288</v>
       </c>
@@ -16629,7 +16627,7 @@
         <v>0.14545454545454545</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>289</v>
       </c>
@@ -16658,7 +16656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>290</v>
       </c>
@@ -16687,7 +16685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>291</v>
       </c>
@@ -16716,7 +16714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>292</v>
       </c>
@@ -16745,7 +16743,7 @@
         <v>0.15437788018433179</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>293</v>
       </c>
@@ -16774,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>294</v>
       </c>
@@ -16803,7 +16801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>295</v>
       </c>
@@ -16832,7 +16830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>296</v>
       </c>
@@ -16861,7 +16859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
         <v>297</v>
       </c>
@@ -16890,7 +16888,7 @@
         <v>0.16796875</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>298</v>
       </c>
@@ -16919,7 +16917,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>299</v>
       </c>
@@ -16948,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>300</v>
       </c>
@@ -16977,7 +16975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>301</v>
       </c>
@@ -17006,7 +17004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>302</v>
       </c>
@@ -17035,7 +17033,7 @@
         <v>0.17241379310344829</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>303</v>
       </c>
@@ -17064,7 +17062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>304</v>
       </c>
@@ -17093,7 +17091,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>305</v>
       </c>
@@ -17122,7 +17120,7 @@
         <v>0.17112299465240641</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>306</v>
       </c>
@@ -17151,7 +17149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>307</v>
       </c>
@@ -17180,7 +17178,7 @@
         <v>0.16216216216216217</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>308</v>
       </c>
@@ -17209,7 +17207,7 @@
         <v>0.16555183946488294</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>309</v>
       </c>
@@ -17238,7 +17236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>310</v>
       </c>
